--- a/limeira.xlsx
+++ b/limeira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,17 +511,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TERRENO COM 800.000m2 com400 metros frente a RODOVIA DUTRA_ PINDAMONHANGABA</t>
+          <t>Terreno de 66303 metros quadrados no bairro Jardim Lagoa Nova</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PINDAMONHANGABA – SÃO PAULO&lt;br&gt;&lt;br&gt;TERRENO com 800.000 m2 na região de Moreira César&lt;br&gt;Vocação da área.&lt;br&gt;&lt;br&gt;Incorporação de empreendimento residencial ( minha casa minha vida ) ou comercial ( logística )&lt;br&gt;Vocação para operação BTS (grandes magazines, lojas de conveniência, fast food, material de construção e afins)&lt;br&gt; &lt;br&gt;RODOVIA DUTRA, KM 85,5 (sentido São Paulo – Rio de Janeiro)&lt;br&gt;A 5 km de roseira e 500 metros do retorno (Moreira César)&lt;br&gt;&lt;br&gt;800.000 m2 em topografia plana (retangular)&lt;br&gt;&lt;br&gt;400 metros de frente para a Rodovia&lt;br&gt;&lt;br&gt;Mais informações em www.palazzoimoveis.com.br</t>
+          <t>INFORMAÇÕES GERAIS SOBRE A GLEBA - ÁREA TOTAL: 66.303,72 m2 - POSSUI PLANIALTIMÉTRICO ELABORADO - LOCALIZAÇÃO: No asfalto, rede de água, luz, telefone,escolas 1º e 2º graus, creches, posto de saúde, centro de lazer público, serviços e comércio com ampla variedade. - ZONEAMENTO URBANO: PERMITE A VERTICALIZAÇÃO E CONDOMÍNIOS (ZPR 2) - TOPOGRAFIA: parte plano e parte em declives que podem ser aplainados. - BENFEITORIAS: SALÃO + PISCINA + 3 CAMPOS DE FUTEBOL + PLAYGROUND + 2 CASAS + VESTIÁRIOS + OUTRAS PEQUENAS BENFEITORIAS.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>66303</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>10600000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra</t>
+          <t>Rua Luiz Fabri</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13481777</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Jardim Lagoa Nova</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-800000m2-venda-RS24000000-id-2583925927/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-lagoa-nova-bairros-limeira-66303m2-venda-RS10600000-id-2427411614/</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EXCELENTE TERRENO EM PINDAMONHANGABA À VENDA IDEAL PARA EMPREENDIMENTO RESIDENCIAL</t>
+          <t>LIMEIRA - Terreno Padrão - Jardim Nova Limeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-Área com vocação para incorporação de empreendimento residencial ( minha casa minha vida ) ou comercial ( logística ).&lt;br&gt;-Também com vocação para operação BTS ( grandes magazines, lojas de conveniência, fast food, material de construção e afins ).&lt;br&gt;Valor IPTU mes 8.115,89&lt;br&gt;-Localizado na RODOVIA DUTRA, KM 85,5 (sentido São Paulo – Rio de Janeiro )&lt;br&gt;A 5 km de roseira e 500 metros do retorno ( Moreira César ).&lt;br&gt; &lt;br&gt;-800.000 m² de terreno com topografia plana ( retangular )&lt;br&gt;-400 m² de frente para a Rodovia.&lt;br&gt;&lt;br&gt;Oportunidade Imperdível!!!!!&lt;br&gt;&lt;br&gt;Venha conferir e agende sua visita com o nosso corretor.</t>
+          <t>Área com excelente localização em frente a pista. &lt;br&gt;&lt;br&gt;Se você quer encontrar o melhor imóvel em Limeira para investir ou morar com sua família, a Mattiazzo realiza!&lt;br&gt;&lt;br&gt;Venha conversar com nossos corretores.&lt;br&gt;&lt;br&gt;Mattiazzo Imóveis&lt;br&gt;CRECI 21832J</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>66494</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>3324693</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rua Camaiore, 32</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -631,24 +631,28 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12442540</t>
+          <t>13486264</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Jardim Regina</t>
+          <t>Jardim Nova Limeira</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-regina-bairros-pindamonhangaba-800000m2-venda-RS24000000-id-93438487/</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>-22.94047</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-45.371891</v>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-nova-limeira-bairros-limeira-66494m2-venda-RS3324693-id-2626201202/</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -657,17 +661,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Área residencial, comercial ou industrial à venda, 495.000 m² por R$ 39.000.000 - Jardim Padre Rodol</t>
+          <t>Área à venda, 198.721 m² Próximo as empresas Ajinomoto, Agropalma e o Castelo do José Rico - Parque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Código do Anúncio: AR0034.&lt;br&gt;&lt;br&gt;Área ou terreno residencial, comercial e ou industrial à venda em Pindamonhangaba.&lt;br&gt;&lt;br&gt;- Área terreno = 495.000 m²&lt;br&gt;- Dimensões = 800 x 620 metros aproximadamente.&lt;br&gt;- Topografia = Plano&lt;br&gt;- Localização = 800 metros de fachada para a Rodovia Presidente Dutra, em frente ao posto de pedágio de Pinda, acesso direto ao terreno.&lt;br&gt;&lt;br&gt;Ótima opção para condomínio residencial horizontal ou mesmo comercial.&lt;br&gt;&lt;br&gt;Valor de venda = R$ 39.000.000,00 (R$ 79,00 / m²).&lt;br&gt;&lt;br&gt;Proprietário estuda desmembrar em duas partes / terrenos.&lt;br&gt;&lt;br&gt;Não aceita permuta ou sociedades para construção.&lt;br&gt;&lt;br&gt;Documentação pronta para venda imediata.&lt;br&gt;&lt;br&gt;Agende já a sua visita e não perca esta oportunidade.&lt;br&gt;&lt;br&gt;Ricardo Russi&lt;br&gt;Engenheiro CREA/SP &lt;br&gt;Corretor de Imóveis - CRECI 220.566/F&lt;br&gt;Celular / WhatsApp (12) 9.9700.8999&lt;br&gt;&lt;br&gt;Temos também imóveis no Jardim das Colinas, Urbanova, Vila Ema, Vila Adyanna, Jardim São Dimas, Jardim das Indústrias, Jardim Alvorada, Parque Residencial Aquarius, Chácara Serimbura, Altos da Serra, Jardim do Golfe, Alphaville, Mônaco, Monte Carlo, Floradas do Paratehy, Reserva do Paratehy, Sunset Park, Jardim Apolo, Esplanada do Sol, Recanto da Serra, Eldorado, Moradas da Serra, Montserrat, Altos da Serra VI, Pontal da Serra, Portal da Serra, Residencial Jaguary, Piaget, Vernazza, Paesaggio, Royal Palace, Pátio Condomínio Club, Esplanada Life, Lessence, Central Park, Grand Club Vila Ema, Abruzzo, Privilege, Premiere Jardim Aquarius, Open View Aquarius entre outros da região.&lt;br&gt;&lt;br&gt;Para vender, alugar ou comprar um imóvel, fale com a Imóveis Aquarius, a sua imobiliária de confiança em São José dos Campos.&lt;br&gt;&lt;br&gt;Escritório: / 3490 WhatsApp &lt;br&gt;https://www.imoveisaquarius.com.br/&lt;br&gt;IMOVEIS AQUARIUS - CRECI 26.179/J -</t>
+          <t>Excelente área rural localizada na margem da rodovia Anhanguera entre Limeira e Americana, próximo as empresas Ajinomoto, Agropalma e Castelo José Rico -</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>495000</t>
+          <t>198721</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -677,7 +681,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>39000000</t>
+          <t>23750000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -687,12 +691,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avenida Doutor José Monteiro Machado César</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -702,17 +706,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12441010</t>
+          <t>13483092</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Jardim Padre Rodolfo</t>
+          <t>Parque Nossa Senhora das Dores</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-padre-rodolfo-bairros-pindamonhangaba-495000m2-venda-RS39000000-id-2572474116/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-parque-nossa-senhora-das-dores-bairros-limeira-198721m2-venda-RS23750000-id-2588315438/</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -732,17 +736,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TERRENO PARA VENDA 800.000 M² PINDAMONHANGABA</t>
+          <t>Terreno, Residencial Jardim dos Ipês II, Limeira - R$ 645 mil, Cod:</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F616&lt;br&gt;&lt;br&gt;ATENÇÃO LEIA A DESCRIÇÃO!&lt;br&gt;&lt;br&gt;TERRENO COM 800.000 M² NA REGIÃO DE MOREIRA CÉSAR&lt;br&gt;VOCAÇÃO DA ÁREA:&lt;br&gt;INCORPORAÇÃO DE EMPREENDIMENTO RESIDENCIAL ( MINHA CASA MINHA VIDA ) OU COMERCIAL ( LOGÍSTICA ),VOCAÇÃO PARA OPERAÇÃO BTS (GRANDES MAGAZINES, LOJAS DE CONVENIÊNCIA, FAST FOOD, MATERIAL DE CONSTRUÇÃO E AFINS),RODOVIA DUTRA, KM 85,5 (SENTIDO SÃO PAULO – RIO DE JANEIRO),A 5 KM DE ROSEIRA E 500 METROS DO RETORNO (MOREIRA CÉSAR),800.000 M2 EM TOPOGRAFIA PLANA (RETANGULAR),400 METROS DE FRENTE PARA A RODOVIA.PRÓXIMO AS PRINCIPAIS VIAS DE ACESSO, TRANSPORTES PÚBLICO, POSTOS DE COMBUSTÍVEIS, ENTRE OUTROS COMÉRCIOS LOCAIS. AS VISITAS SÓ PODERÃO SER FEITAS ATRAVÉS DO AGENDAMENTO VIA E-MAIL E WHATSAPP.ATENÇÃO:VALORES ESTÃO SUJEITOS ALTERAÇÃO SEM AVISO PRÉVIO!&lt;br&gt;ESTUDA PROPOSTA</t>
+          <t>ÁREA RURAL LIMEIRA/COSMOPÓLIS&lt;br&gt;&lt;br&gt;&lt;br&gt;Vende-se área rural em Limeira com 61.712,94m2. no bairro do Pinhal. &lt;br&gt;&lt;br&gt;Fica na estrada entre Cosmópolis e Limeira, a área tem um bico que termina em uma represa, ideal para plantações, sítios etc. &lt;br&gt;&lt;br&gt;Estuda permuta com carro como parte de pagamento, documentação está ok.&lt;br&gt;&lt;br&gt;Agende sua visita!!!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>61713</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -752,7 +756,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23999999</t>
+          <t>645000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -762,12 +766,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avenida Doutor José Monteiro Machado César, 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -777,24 +781,28 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12441010</t>
+          <t>13484612</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Loteamento Joao Tamborindeguy Fernandes</t>
+          <t>Residencial Jardim dos Ipes II</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-loteamento-joao-tamborindeguy-fernandes-bairros-pindamonhangaba-800000m2-venda-RS23999999-id-2611998997/</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>-22.920146</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-45.36113</v>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-residencial-jardim-dos-ipes-ii-bairros-limeira-61713m2-venda-RS645000-id-2572203441/</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -803,17 +811,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lote/Terreno - industrial - 244000 m² - Feital - Pindamonhangaba - SP</t>
+          <t>Área Industria Limeira Mogi Mirim - Estrada Municipal Lim 353 - Limeira - SP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Área Comercial e Industrial a Beira Da Dutra com 244.000,00 metros&lt;br&gt;&lt;br&gt;ZONEAMENTO - O terreno, está dividido em "Zona de Ocupação Prioritária e Zona de Desenvolvimento Econômico."&lt;br&gt;&lt;br&gt;****Menor preço por Quadrado da Região****&lt;br&gt;&lt;br&gt;Excelente Para Posto de Combustível, Restaurante e Áreas Comerciais&lt;br&gt;&lt;br&gt;Área Plana, sem Benfeitorias, a beira da Dutra e vários bairros próximos a área;&lt;br&gt;&lt;br&gt;Maiores Informações: 1 2 - 9 9 6 0 0 - 5 0 1 5 &lt;br&gt;&lt;br&gt;Próximo de Escola Estadual e Comércios Locais;&lt;br&gt;Aos Fundos, Loteamento de Galpões Industriais;&lt;br&gt;Pequeno córrego;&lt;br&gt;&lt;br&gt;Entre Pindamonhangaba e a cidade de Taubaté, sentido São Paulo - Rio de Janeiro.&lt;br&gt;&lt;br&gt;Ótima Oportunidade de Negócio!&lt;br&gt;&lt;br&gt;Maiores Informações: 1 2 9 9 6 0 0 - 5 0 1 5</t>
+          <t>Área Industrial próximo a Limeira Mogi Mirim, Com acesso fácil, Estrada Municipal Lim, 353 , asfalto até o Local.&lt;br&gt;&lt;br&gt;Aceita troca.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>244000</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -823,7 +831,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13800000</t>
+          <t>6500000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -833,12 +841,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra, 1000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -848,24 +856,28 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12441245</t>
+          <t>13480970</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Feital</t>
+          <t>Bairro do Ferrão</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-feital-bairros-pindamonhangaba-244000m2-venda-RS13800000-id-2597285058/</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>-22.915461</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-45.370823</v>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-do-ferrao-bairros-limeira-60000m2-venda-RS6500000-id-2482567874/</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -874,17 +886,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lote / Terreno com 1 dormitório à venda em Pindamonhangaba</t>
+          <t>LIMEIRA - Terreno Padrão - Geada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RODOVIA DUTRA, sentido SÃO PAULO = RIO DE JANEIRO . Avaliamos a possibilidade de parcelamento da área, venda com financiamento , à prazo ou até operação envolvendo CRI. Qualquer dúvida ou esclarecimento adicional, estaremos à disposição. PINDAMONHANGABA SÃO PAULO Área com vocação para incorporação de empreendimento residencial ( minha casa minha vida ) ou comercial ( logística ) Também com vocação para operação BTS ( grandes magazines, lojas de conveniência, fast food... Código do imóvel: 2122_2-1053270 na imobiliária.</t>
+          <t>Área para vender em Limeira, uma gleba de 9,750 alqueires,ou 10,29 alqueires, conforme levantamento planialtimétrico. marginal na SP 147. As terras estão a 100 metros da margem da pista e a aproximadamente 2 Km da Rodovia dos Bandeirantes.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -894,7 +906,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>15000000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -904,12 +916,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodovia Presidente Dutra, </t>
+          <t>Rua Tiradentes, 147</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -919,24 +931,24 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13480970</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Zona Rural</t>
+          <t>Bairro da Geada</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-zona-rural-bairros-pindamonhangaba-com-garagem-800000m2-venda-RS24000000-id-2617611402/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-da-geada-bairros-limeira-250000m2-venda-RS15000000-id-2450937093/</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-22.817879</v>
+        <v>-22.563854</v>
       </c>
       <c r="O7" t="n">
-        <v>-45.182075</v>
+        <v>-47.399349</v>
       </c>
     </row>
     <row r="8">
@@ -945,17 +957,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TERRENO PARA VENDA 800.000 M² NA DUTRA - PINDAMONHAGABA</t>
+          <t>Área à venda, 133000 m² por R$ 3.000.000,00 - Jardim Adélia Cavicchia Grotta - Limeira/SP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AD299&lt;br&gt;&lt;br&gt;ÁREA COM 800.000 M2 EM TOPOGRAFIA PLANA (RETANGULAR)&lt;br&gt;400 METROS DE FRENTE PARA A RODOVIA DUTRA&lt;br&gt;VOCAÇÃO PARA OPERAÇÃO BTS (GRANDES MAGAZINES, LOJAS DE CONVENIÊNCIA, FAST FOOD, MATERIAL DE CONSTRUÇÃO E AFINS)&lt;br&gt;INCORPORAÇÃO DE EMPREENDIMENTO RESIDENCIAL ( MINHA CASA MINHA VIDA ) OU COMERCIAL ( LOGÍSTICA )&lt;br&gt;LOCALIZAÇÃO: RODOVIA DUTRA, KM 85,5 (SENTIDO SÃO PAULO – RIO DE JANEIRO)- A 5 KM DE ROSEIRA E 500 METROS DO RETORNO (MOREIRA CÉSAR)&lt;br&gt; AS VISITAS SÓ PODERÃO SER FEITAS ATRAVÉS DO AGENDAMENTO VIA E-MAIL E WHATSAPP.&lt;br&gt;ATENÇÃO:VALORES ESTÃO SUJEITOS ALTERAÇÃO SEM AVISO PRÉVIO!&lt;br&gt;ESTUDA PROPOSTA</t>
+          <t>Área em zoneamento Rural, na divisa de Santa Barbara D´Oeste e Limeira.&lt;br&gt;Possui 133.000 m².&lt;br&gt;Casa sede, piscina, gramado, casa caseiro, galpão.&lt;br&gt;Usado para plantação de Cana de Açúcar.&lt;br&gt;&lt;br&gt;Ótima oportunidade. -</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>133000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -965,7 +977,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>3000000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -975,12 +987,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra, 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -990,24 +1002,28 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13482175</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Jardim Adélia Cavicchia Grotta</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-800000m2-venda-RS24000000-id-2552900299/</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>-22.988334</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-45.476658</v>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-adelia-cavicchia-grotta-bairros-limeira-133000m2-venda-RS3000000-id-2567993309/</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1016,17 +1032,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Área na Rod. Presidente Dutra -242.000 m² -Pindamonhangaba -SP</t>
+          <t>Terreno à venda, Parque Residencial Aeroporto - Limeira /SP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Excelente área para investimento Residencial e Industrial!&lt;br&gt;LINDA ÁREA PLANA !&lt;br&gt;COM 500 MTS DE FRENTE PARA A RODOVIA PRESIDENTE DUTRA.&lt;br&gt;MUNICIPIO DE PINDAMONHANGABA NO SENTIDO SAO PAULO - RIO COM ACESSO E SAIDA PARA A RODOVIA.&lt;br&gt;IMAGEM DO FORMATO É APROXIMADO.&lt;br&gt;VALOR :R$ 57,85 - POR METRO QUADRADO.&lt;br&gt;*ESTUDA PROPOSTA.&lt;br&gt;&lt;br&gt;Com 242.000 m2, sem nenhuma benfeitoria, com acesso e saída para a Rodovia Dutra.&lt;br&gt;Documentação ok&lt;br&gt;*Os valores anunciados junto ao imóvel e sua disponibilidade para compra ou aluguel podem sofrer alterações sem prévio aviso.&lt;br&gt;Para mais detalhes, entre em contato:&lt;br&gt;APARECIDA GALHARDO &lt;br&gt;CRECI: 193.490-F&lt;br&gt;CARLA SENE &lt;br&gt;CRECI: 193.067-F -</t>
+          <t>TERRENO EM LIMEIRA EXCELENTE AREA PARA INVESTIDOR ZONEAMENTO URBANO, PERMITE VERTICALIZAÇÃO E CONDOMINIO ZPR-2 PARTE PLANA E PARTE ACIDENTADA, COM PLATÔS QUE PODEM SER OPLANADOS. EMPREENDIMENTO COM TODA INFA ESTRUTURA. 67.238,51m² CONSTRUTORA PARA EDIFICAÇÃO DE PREDIOS RESIDENCIAIS, AGENDE JA SUA VISITA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>242000</t>
+          <t>67239</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1036,7 +1052,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>13447702</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1051,7 +1067,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Caieiras</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1061,17 +1077,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>07723000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Parque Residencial Aeroporto</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-242000m2-venda-RS14000000-id-2568629826/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-parque-residencial-aeroporto-bairros-limeira-67239m2-venda-RS13447702-id-2586083777/</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1091,17 +1107,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Terreno Pindamonhangaba - Topografia Plana</t>
+          <t>Área à venda, 63793 m² por R$ 1.200.000,00 - Jaguari - Limeira/SP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PINDAMONHANGABA - SÃO PAULO - TERRENO com 800.000 m2 na região de Moreira César Topografia Plana Incorporação de Empreendimento Residencial (Minha Casa Minha Vida ou Comercial ( Logística ) Vocação para operação BTS (grandes magazines, lojas de conveniência, fast food, material de construção e afins) RODOVIA DUTRA, KM 85,5 (sentido São Paulo - Rio de Janeiro) A 5 km de roseira e 500 metros do retorno (Moreira César) - Ref.: REO592824</t>
+          <t>Área rural localizado próximo à Rodovia Anhanguera, com 63.793,11m². -</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>63793</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1111,7 +1127,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1126,7 +1142,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Americana</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1136,17 +1152,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13468260</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Jaguari</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-800000m2-venda-RS24000000-id-2540580098/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jaguari-bairros-limeira-63793m2-venda-RS1200000-id-2567990384/</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1166,17 +1182,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Terreno à venda, 800000 m² por R$ 24.000.000,00 - Moreira César - Pindamonhangaba/SP</t>
+          <t>Limeira - Terreno Padrão - BAIRRO DA GEADA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Incorporação de empreendimento residencial ( minha casa minha vida ) ou comercial ( logística )&lt;br&gt;Vocação para operação BTS (grandes magazines, lojas de conveniência, fast food, material de construção e afins)&lt;br&gt;A 5 km de roseira e 500 metros do retorno (Moreira César). -</t>
+          <t>ÁREA COM 9,8 ALQUEIRES OU 23,71 HECTARES EM LIMEIRA - SENDO 220 MIL M, ATRÁS DO BAIRRO DO PARRONCHI, PRÓXIMO DA CALENDE, COM BOA TOPOGRAFIA. FICA DO LADO DIREITO DA RODOVIA LIMEIRA X PIRACICABA, LOGO APÓS FICA A RODOVIA BANDEIRANTES, PRÓXIMO DO SHOPPING NAÇÕES - NA FRENTE TEM REDE ÁGUA E NOS FUNDOS PASSA REDE ESGOTO, A ELEKTRO JÁ COLOCOU POSTES. ÁREA IDEAL PARA INDÚSTRIA, GALPÃO, FÁCIL ACESSO. ** DOCUMENTOS EM ORDEM, APROVADO PELA PREFEITURA COMO ZONA INDUSTRIAL**. PROPRIETÁRIO ACEITA PERMUTA E ESTUDA PROPOSTAS.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>235000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1186,7 +1202,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>17600000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1196,12 +1212,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1211,17 +1227,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13482859</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Bairro da Geada</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-800000m2-venda-RS24000000-id-2623872158/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-da-geada-bairros-limeira-235000m2-venda-RS17600000-id-2447286422/</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1241,17 +1257,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Área para Venda em Pindamonhangaba, Residencial Mantiqueira</t>
+          <t>Limeira - Terreno Padrão - Bairro do Parronchi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OPORTUNIDADE !!! &lt;br&gt; &lt;br&gt; VENDO ESTA ÁREA , COM 4 ALQUEIRES , TOPOGRAFIA PLANA, VISTA ESPETACULAR PARA A SERRA DA MANTIQUEIRA. &lt;br&gt; &lt;br&gt; ÓTIMA LOCALIZAÇÃO, A POUCOS METROS DO ASFALTO. &lt;br&gt; &lt;br&gt; PREÇO ABAIXO DO MERCADO &lt;br&gt; &lt;br&gt; &lt;br&gt; - Proximidades: Bares e Restaurantes, Escola, Farmácia, Supermercado, &lt;br&gt; &lt;br&gt; Observação: CONSULTE-ME SOBRE DISPONIBILIDADE DO IMÓVEL &lt;br&gt; PREÇO SUJEITO A ALTERAÇÃO.</t>
+          <t>ÓTIMA ÁREA COM 49.900 M - BOA TOPOGRAFIA, ÀS MARGENS DA RODOVIA (ASFALTO), SENTIDO PIRACICABA X LIMEIRA, PRÓXIMO À ROTATÓRIA. BAIRRO DO PARRONCHI, IDEAL PARA ÁREA INDUSTRIAL - PEDE APENAS R$ 170,00 O M . POSSUI 2 CASAS (SENDO 1 COM SALÃO DE FESTAS E PISCINA) E POÇO ARTESIANO, BARRACÃO E ESCRITÓRIO. PROPRIETÁRIO ESTUDA PEGAR IMÓVEIS DE MENOR VALOR COMO PARTE DE PAGAMENTO.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1261,7 +1277,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>8485000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1276,7 +1292,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1286,17 +1302,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12446220</t>
+          <t>13482859</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Residencial Mantiqueira</t>
+          <t>Bairro da Geada</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-residencial-mantiqueira-bairros-pindamonhangaba-100000m2-venda-RS1200000-id-2608709777/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-da-geada-bairros-limeira-49900m2-venda-RS8485000-id-2457953466/</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1316,17 +1332,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Área em Pindamonhangaba</t>
+          <t>Área à venda, 66000 m² por R$ 7.260.000,00 - Pinhal - Limeira/SP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Área total de 242 mil metros quadrados&lt;br&gt;&lt;br&gt;Celular : ( 1 2 ) 9 9 7 9 3 - 2 0 6 8 Mauro Garcia ZAP&lt;br&gt;Creci : 181968-f -</t>
+          <t>Area pra loteamento&lt;br&gt;São 66 mil m2 , próximo a infra !&lt;br&gt;Só venda !! -</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>242000</t>
+          <t>66000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1336,7 +1352,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13310000</t>
+          <t>7260000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1351,7 +1367,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1361,17 +1377,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12410455</t>
+          <t>13480970</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Parque São Domingos</t>
+          <t>Bairro do Pinhal</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-parque-sao-domingos-bairros-pindamonhangaba-242000m2-venda-RS13310000-id-2624372747/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-do-pinhal-bairros-limeira-66000m2-venda-RS7260000-id-2624614041/</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1391,17 +1407,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pindamonhangaba - Terreno Padrão - Moreira César</t>
+          <t>Limeira - Terreno Padrão - VIA ANHANGUERA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Terreno com topografia plana e retanguar, 400 mts de frente para a Rodovia Dutra. Vocação para Incorporação de Empreendimento Residencial ( minha casa /minha vida), ou comercial ( Logística). Vocação também para Grandes Magazines, lojas de Conveniência, Fast Food, Material de Construção, etc. Localizado no Km 85.5, sentido SP - RJ.&lt;br&gt;&lt;br&gt;&lt;br&gt;Terreno no bairro Moreira César com 800000m² área total. .&lt;br&gt;</t>
+          <t>OCASIÃO, ÀS MARGENS DA RODOVIA LIMEIRA X COSMÓPOLIS, A 3,5 KM DO TREVO DA RODOVIA ANHANGUERA ÁREA INDUSTRIAL COM 129.668,00 M. DESTINADA EXCLUSIVAMENTE PARA ÁREA INDUSTRIAL, HAJA VISTO QUE FICA CERCA DE 10 KM DA CIDADE E NÃO É VIÁVEL PARA EMPREENDIMENTOS OU LOTEAMENTOS, AO LADO DE UMA GRANDE EMPRESA, COM VALOR DE APENAS R$ 65,00 O M. POSSUI BOA TOPOGRAFIA, FICA MAIS ALTA QUE A RODOVIA. ESTUDA PEGAR IMÓVEIS EM LIMEIRA OU NA CAPITAL COMO PARTE DO PAGAMENTO - TODA A DOCUMENTAÇÃO ESTÁ EM ORDEM.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>124731</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1411,7 +1427,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>36000000</t>
+          <t>12000000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1426,7 +1442,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1436,17 +1452,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13485342</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Moreira César</t>
+          <t>Jardim Anhanguera</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-moreira-cesar-bairros-pindamonhangaba-800000m2-venda-RS36000000-id-2584566758/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-anhanguera-bairros-limeira-124731m2-venda-RS12000000-id-2447287698/</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1466,17 +1482,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Terreno para Venda em Arujá/SP</t>
+          <t>área - Ferrão - Limeira</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>#AREAINDUSTRIAL #ZONEAMENTOINDUSTRIAL #EMPRESAS #INVESTIDORES&lt;br&gt; #EMPREENDEDORES &lt;br&gt; *AREA INDUSTRIAL NA RODOVIA DUTRA &lt;br&gt; *EXCELENTE AREA INDUSTRIAL. *120 MIL METROS ZONEAMENTO ZUP 1 * RESTANTE ZONA MISTA . * POSSUI 2 ESCRITURAS. *AREA TOTAL 278 MIL METROS *AREA PARA EMPRESAS *100 REAIS O METRO *DOCUMENTAÇAO REGULARIZADA.&lt;br&gt;*OTIMO PARA INVESTIDORES E EMPREENDEDORES. *AGENDE UMA VISITA ME CHAME NO WHATSSAP</t>
+          <t>OPORTUNIDADE IMPERDIVEL ÁREA COMERCIAL/INDUSTRIAL EM LIMEIRA -SP&lt;br&gt;&lt;br&gt;A aéra possui 492.000m², Poço artesiano de capacidade de 18mil litros, Bem proximo das margens da rodovia Anhanguera em Limeira.&lt;br&gt;&lt;br&gt;Essa localização estratégica oferece fácil acesso a vários pontos da cidade e da região, além de proporcionar visibilidade e visibilidade para sua empresa. Seja para construir um centro empresarial ou industrial, essa área é perfeita para quem busca crescimento e desenvolvimento.&lt;br&gt;&lt;br&gt;Agende sua visita com um de nossos corretores! &lt;br&gt;&lt;br&gt;A Petrucci Gestão Imobiliária oferece todo o suporte na hora da compra, venda e locação de um imóvel. Departamento jurídico em tempo integral, além de profissionais capacitados e especializados em atender e sanar todas as dúvidas, desde a escolha do imóvel até o pós-venda. &lt;br&gt;&lt;br&gt;Somos especialistas em ajustar o negócio de acordo com a realidade de cada cliente, assim adaptamos propostas exclusivas de mercado para você chegar aonde deseja. &lt;br&gt;&lt;br&gt;Consulte-nos! &lt;br&gt;&lt;br&gt;Petrucci Gestão Imobiliária. -</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>278000</t>
+          <t>492000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1486,7 +1502,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>29500000</t>
+          <t>54000000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1496,12 +1512,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Avenida Marechal Arthur da Costa e Silva, KM 152</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1511,28 +1527,24 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12442250</t>
+          <t>13487230</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Industrial Moreira Cesar</t>
+          <t>Bairro do Ferrão</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-industrial-moreira-cesar-bairros-pindamonhangaba-278000m2-venda-RS29500000-id-2616400203/</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-do-ferrao-bairros-limeira-492000m2-venda-RS54000000-id-2610462636/</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>-22.582356</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-47.385364</v>
       </c>
     </row>
     <row r="16">
@@ -1541,17 +1553,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Terreno à venda, 244000 m² por R$ 12.000.000,00 - Jardim Regina (Moreira César) - Pindamonhangaba/SP</t>
+          <t>Terreno em Condomínio para Venda em Limeira, Jardim Colina Verde</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Área de 244.200,00m² de frente com a Rodovia Presidente Dutra, sentido Rio de Janeiro. -</t>
+          <t>Terreno no Condomínio Colina Verde - Limeira,SP &lt;br&gt; &lt;br&gt; Terreno com 1.200 metros excelente espaço para você construir sua casa dos sonhos &lt;br&gt; E uma excelente área de lazer &lt;br&gt; &lt;br&gt; Aceita veículo como parte de pagamento &lt;br&gt; &lt;br&gt; &lt;br&gt; - Proximidades: Escola, Farmácia, Supermercado,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>244000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1561,7 +1573,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12000000</t>
+          <t>880000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1571,12 +1583,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1586,17 +1598,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13481671</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Jardim Regina</t>
+          <t>Jardim Colina Verde</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-regina-bairros-pindamonhangaba-244000m2-venda-RS12000000-id-2568623071/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-colina-verde-bairros-limeira-1200000m2-venda-RS880000-id-2488150773/</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1616,17 +1628,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Excelente terreno rural de 340.000m2 , com vista deslumbrante em Pindamonhangaba - SP</t>
+          <t>Terreno à venda, 105000 m² por R$ 5.250.000,00 - Limeira - Limeira/SP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Oportunidade: Belíssimo sítio à beira da Rodovia Caio Gomes Figueiredo em Pindamonhangaba.&lt;br&gt;&lt;br&gt;&lt;br&gt;Ótima localização: Sítio à beira da Rodovia Caio Gomes Figueiredo.&lt;br&gt;Duas entradas, sendo uma pela Rodovia Caio Gomes Figueiredo e outra pela Estrada do Pesqueiro Vila Rica, Estrada Municipal Margarida de Louzada.&lt;br&gt;A 6 km do posto de polícia Rodoviária de Campos do Jordão.&lt;br&gt;Inteiro ou fracionado.&lt;br&gt;Água e luz;&lt;br&gt;3 Nascentes.&lt;br&gt;&lt;br&gt;*** Aceita veículo ou boa casa em Pinda como parte do pagamento ***&lt;br&gt;&lt;br&gt;Vista deslumbrante!&lt;br&gt;Terreno parte plano e parte em aclive.&lt;br&gt;Terreno de 340.000m2.&lt;br&gt;Documentação ok.&lt;br&gt;&lt;br&gt;&lt;br&gt;ENTRE EM CONTATO AGORA MESMO E AGENDE SUA VISITA.&lt;br&gt;&lt;br&gt;Para mais informações:&lt;br&gt;&lt;br&gt;Grothe &amp; Lima Imóveis&lt;br&gt;CRECI: 35459-J&lt;br&gt;CNPJ: /000147 -</t>
+          <t>Terreno industrial com 105.000m² de área total.&lt;br&gt;&lt;br&gt;Para obter uma consultoria imobiliária completa e de qualidade, basta entrar em contato com nossos consultores através dos telefones e e-mail abaixo:&lt;br&gt;F: / &lt;br&gt;&lt;br&gt;&lt;br&gt;*Valores informados e disponibilidade do imóvel sujeitos a alterações sem prévio aviso. -</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>320000</t>
+          <t>105000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1636,7 +1648,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>5250000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1651,7 +1663,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1661,17 +1673,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12404010</t>
+          <t>13487170</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Ribeirão Grande</t>
+          <t xml:space="preserve">LIMEIRA </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-ribeirao-grande-bairros-pindamonhangaba-320000m2-venda-RS2120000-id-2568418087/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-limeira-bairros-limeira-105000m2-venda-RS5250000-id-2568000175/</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1691,17 +1703,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lote / Terreno à venda em Pindamonhangaba</t>
+          <t>Lote/Terreno/Área para venda possui 66.300 m² - Limeira - São Paulo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RODOVIA DUTRA, sentido SÃO PAULO = RIO DE JANEIRO . Avaliamos a possibilidade de parcelamento da área, venda com financiamento , à prazo ou até operação envolvendo CRI. Qualquer dúvida ou esclarecimento adicional, estaremos à disposição. PINDAMONHANGABA SÃO PAULO Área com vocação para incorporação de empreendimento residencial ( minha casa minha vida ) ou comercial ( logística ) Também com vocação para operação BTS ( grandes magazines, lojas de conveniência, fast food... Código do imóvel: 2122A_2-647938 na imobiliária.</t>
+          <t>Área para investidor com valor abaixo do mercado!&lt;br&gt;Vendo excelente área de 66.300 m² no asfalto, com toda infraestrutura ( água, luz, esgoto, telefone...).&lt;br&gt;Revelo do terreno com declive nos fundos. &lt;br&gt;Temos plano altimétrico pronto da área.&lt;br&gt;Não aceitamos parcerias , somente venda!</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>66300</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1711,7 +1723,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>6497400</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1721,12 +1733,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodovia Presidente Dutra, </t>
+          <t>Rua Luiz Fabri, 241</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1736,24 +1748,24 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12440245</t>
+          <t>13481777</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Zona Rural</t>
+          <t>Jardim Lagoa Nova</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-zona-rural-bairros-pindamonhangaba-com-garagem-800000m2-venda-RS24000000-id-2617605678/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-lagoa-nova-bairros-limeira-66300m2-venda-RS6497400-id-2608516325/</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>-22.817879</v>
+        <v>-22.619053</v>
       </c>
       <c r="O18" t="n">
-        <v>-45.182075</v>
+        <v>-47.409062</v>
       </c>
     </row>
     <row r="19">
@@ -1762,17 +1774,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Terreno à venda, 800000 m² por R$ 36.000.000,00 - Feital - Pindamonhangaba/SP</t>
+          <t>Área para Venda em Limeira, Água Espraiada</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Área com vocação para incorporação de&lt;br&gt;empreendimento residencial (minha casa minha&lt;br&gt;vida) ou comercial (logística)&lt;br&gt;&lt;br&gt;Também com vocação para operação BTS (grandes&lt;br&gt;magazines, lojas de conveniência, fast food,&lt;br&gt;material de construção e afins)&lt;br&gt;&lt;br&gt;A 5 km de roseira e 500 metros do retorno (Moreira&lt;br&gt;César)&lt;br&gt;&lt;br&gt;800.000 m2 em topografia plana (retangular)&lt;br&gt;400 m2 de frente para a Rodovia -</t>
+          <t>ÁREA INDUSTRIAL NA ÁGUA ESPRAIADA - LIMEIRA/SP &lt;br&gt; &lt;br&gt; ÁREA TOTAL DO TERRENO 145.000,76 M². &lt;br&gt; FRENTE AO ASFALTO. &lt;br&gt; &lt;br&gt; DOCUMENTAÇÃO EM ORDEM.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>145000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1782,7 +1794,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36000000</t>
+          <t>5500000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1792,12 +1804,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rodovia Presidente Dutra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1807,17 +1819,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12441245</t>
+          <t>13489899</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Feital</t>
+          <t>Água Espraiada</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-feital-bairros-pindamonhangaba-800000m2-venda-RS36000000-id-2451931242/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-agua-espraiada-bairros-limeira-145000m2-venda-RS5500000-id-2456718759/</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1837,17 +1849,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Excelente área de 280.000m² , com vista deslumbrante em Pindamonhangaba - SP</t>
+          <t>Área à venda, 63793 m² por R$ 1.200.000,00 - Área Rural de Limeira - Limeira/SP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oportunidade: Extenso sítio, com bela vista, próximo ao Pesqueiro Vila Rica em Pindamonhangaba.&lt;br&gt;&lt;br&gt;&lt;br&gt;Ótima localização:&lt;br&gt;Frente para a Estrada Margarida Louzada Rodrigues (a estrada do Pesqueiro Vila Rica).&lt;br&gt;&lt;br&gt;Água e luz;&lt;br&gt;Nascentes no local.&lt;br&gt;&lt;br&gt;*** Aceita veículo ou boa casa em Pinda como parte do pagamento ***&lt;br&gt;&lt;br&gt;Vista deslumbrante!&lt;br&gt;Terreno em aclive.&lt;br&gt;Terreno de 280.000m2.&lt;br&gt;Documentação ok.&lt;br&gt;&lt;br&gt;Parte de uma área maior (340.000,00m²) também à venda por inteiro&lt;br&gt;Referência da venda da área total: AR0049&lt;br&gt;&lt;br&gt;ENTRE EM CONTATO AGORA MESMO E AGENDE SUA VISITA.&lt;br&gt;&lt;br&gt;Para mais informações:&lt;br&gt;&lt;br&gt;Grothe &amp; Lima Imóveis&lt;br&gt;CRECI: 35459-J&lt;br&gt;CNPJ: /000147 -</t>
+          <t>Chácara na área rural de Limeira com 63.793,11m² (6,34ha) Limeira com terreno plano, sem benefícios, usado para agricultura, onde atualmente está arrendado para a plantação de milho. Possui um passe em uma das pontas do terreno.&lt;br&gt;Acesso pela Rodovia Anhanguera e Estrada Municipal Limeira-125. Terreno distante a menos de 1km da Estrada. Próximo as empresas Uniplastic, Ajinomoto, Facchini, Agropalma, Transcopa, Flex do Brasil entre outras.&lt;br&gt;Aceita permuta com imóvel de menor valor na região de Americana ou Limeira. Documentação OK.&lt;br&gt;Venha você mesmo conferir!&lt;br&gt;UMA UNE IMÓVEIS EM REDE ESPERA POR VOCÊ !! -</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>280000</t>
+          <t>63793</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1857,7 +1869,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1872,7 +1884,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1882,17 +1894,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12404085</t>
+          <t>13489899</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ribeirão Grande</t>
+          <t>Area Rural de Limeira</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-ribeirao-grande-bairros-pindamonhangaba-280000m2-venda-RS2200000-id-2568418674/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-area-rural-de-limeira-bairros-limeira-63793m2-venda-RS1200000-id-2568662154/</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1912,17 +1924,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Área Loteamento João Tamborindeguy Fernandes</t>
+          <t>Área à venda, Vila Piccin - Limeira/SP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Área plana de 495.969,41 m² plana em frente a Rodovia Presidente Dutra, praça de pedágio de Pindamonhangaba.&lt;br&gt;&lt;br&gt;Imóvel está situado em Zona Mista ( Residencial, Comercial e Serviços).</t>
+          <t>Dimensão Terreno 320.000,00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>495969</t>
+          <t>320000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1932,7 +1944,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>42075000</t>
+          <t>14400000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,12 +1954,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avenida Doutor José Monteiro Machado César</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1957,17 +1969,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12441970</t>
+          <t>13489102</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Loteamento Joao Tamborindeguy Fernandes</t>
+          <t>Vila Piccin</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-loteamento-joao-tamborindeguy-fernandes-bairros-pindamonhangaba-495969m2-venda-RS42075000-id-2626106569/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-vila-piccin-bairros-limeira-320000m2-venda-RS14400000-id-2533670595/</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1987,17 +1999,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Área para Venda em Pindamonhangaba, Campinas</t>
+          <t>Terreno à venda, 46000 m² por R$ 1.800.000,00 - Campo Novo - Limeira/SP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1381-M / Excelente Área em Pindamonhangaba com apróx. 52.000m², pouco mais de dois alqueires. &lt;br&gt; &lt;br&gt; Localização Impar, próximo a Dutra com Acesso fácil. &lt;br&gt; &lt;br&gt; Aceita terreno, casas, aptos, carros e também parcela. &lt;br&gt; &lt;br&gt; Agende já, faça uma visita e confira! Whatsapp</t>
+          <t>Área total - 46.000m².&lt;br&gt;.&lt;br&gt;Localização fácil acesso à Rodovia SP-133 KM 01, SP.&lt;br&gt;.&lt;br&gt;Plantação de Eucalipto Aproximadamente 7000 árvores.&lt;br&gt;Tempo do plantio&lt;br&gt;1- Lote 5 anos&lt;br&gt;2- Lote 3 anos&lt;br&gt;3- Lote 2 anos&lt;br&gt;4- Lote 1 ano&lt;br&gt;.&lt;br&gt;.&lt;br&gt;&lt;br&gt;Benfeitorias&lt;br&gt;1- Rancho de aproximadamente 60m² feito de eucalipto e tijolo comum de barro.&lt;br&gt;2- Poço caipira de 20 metros de profundidade sendo 12metro de coluna dagua aproximadamente 37mi litros de água.&lt;br&gt;.&lt;br&gt;Horários flexíveis para visita. -</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52000</t>
+          <t>46000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2007,7 +2019,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6500000</t>
+          <t>1800000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2022,7 +2034,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pindamonhangaba</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2032,17 +2044,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12415040</t>
+          <t>13487453</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Jardim Residencial Campo Novo</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>https://www.vivareal.com.br//imovel/lote-terreno-campinas-bairros-pindamonhangaba-52000m2-venda-RS6500000-id-2606741586/</t>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-residencial-campo-novo-bairros-limeira-46000m2-venda-RS1800000-id-2536169645/</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2051,6 +2063,1123 @@
         </is>
       </c>
       <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>área - Ferrão - Limeira</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OPORTUNIDADE IMPERDIVEL ÁREA COMERCIAL/INDUSTRIAL EM LIMEIRA -SP&lt;br&gt;&lt;br&gt;A aéra possui 492.000m², Poço artesiano de capacidade de 18mil litros, Bem proximo das margens da rodovia Anhanguera em Limeira.&lt;br&gt;&lt;br&gt;Essa localização estratégica oferece fácil acesso a vários pontos da cidade e da região, além de proporcionar visibilidade e visibilidade para sua empresa. Seja para construir um centro empresarial ou industrial, essa área é perfeita para quem busca crescimento e desenvolvimento.&lt;br&gt;&lt;br&gt;Agende sua visita com um de nossos corretores! &lt;br&gt;&lt;br&gt;A Petrucci Gestão Imobiliária oferece todo o suporte na hora da compra, venda e locação de um imóvel. Departamento jurídico em tempo integral, além de profissionais capacitados e especializados em atender e sanar todas as dúvidas, desde a escolha do imóvel até o pós-venda. &lt;br&gt;&lt;br&gt;Somos especialistas em ajustar o negócio de acordo com a realidade de cada cliente, assim adaptamos propostas exclusivas de mercado para você chegar aonde deseja. &lt;br&gt;&lt;br&gt;Consulte-nos! &lt;br&gt;&lt;br&gt;Petrucci Gestão Imobiliária. -</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>492000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>54000000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Avenida Marechal Arthur da Costa e Silva, KM 152</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>13487230</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Bairro do Ferrão</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-do-ferrao-bairros-limeira-492000m2-venda-RS54000000-id-2610484497/</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>-22.582356</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-47.385364</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Área à venda, 70000 m² por R$ 8.400.000,00 - do Porto - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Excelente área para loteamento residencial fechado, de frente para Rod Luis Ometo. Estuda venda de lotes de 24 mil m2, Zoneamento: Área de desenvolvimento Industrial e comercial Margem de rodovia, Macrozona rural de potencial Turístico, valores entre R$ 120,00 a R$130,00 o m2 dependendo do modulo escolhido e forma de pagamento.&lt;br&gt;Ligue para maiores informações.&lt;br&gt;&lt;br&gt;As informações exibidas podem sofrer alteração sem aviso prévio. -</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8400000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>13489899</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Jardim Porto Real</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-porto-real-bairros-limeira-70000m2-venda-RS8400000-id-2451630186/</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Área à venda, Jardim Nova Limeira - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Área total do terreno 48.000 m².</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3146000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Rio Claro</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>13506800</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Jardim Nova Limeira</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-nova-limeira-bairros-limeira-48000m2-venda-RS3146000-id-2523080107/</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>área - Ferrão - Limeira</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OPORTUNIDADE IMPERDIVEL ÁREA COMERCIAL/INDUSTRIAL EM LIMEIRA -SP&lt;br&gt;&lt;br&gt;A aéra possui 492.000m², Poço artesiano de capacidade de 18mil litros, Bem proximo das margens da rodovia Anhanguera em Limeira.&lt;br&gt;&lt;br&gt;Essa localização estratégica oferece fácil acesso a vários pontos da cidade e da região, além de proporcionar visibilidade e visibilidade para sua empresa. Seja para construir um centro empresarial ou industrial, essa área é perfeita para quem busca crescimento e desenvolvimento.&lt;br&gt;&lt;br&gt;Agende sua visita com um de nossos corretores! &lt;br&gt;&lt;br&gt;A Petrucci Gestão Imobiliária oferece todo o suporte na hora da compra, venda e locação de um imóvel. Departamento jurídico em tempo integral, além de profissionais capacitados e especializados em atender e sanar todas as dúvidas, desde a escolha do imóvel até o pós-venda. &lt;br&gt;&lt;br&gt;Somos especialistas em ajustar o negócio de acordo com a realidade de cada cliente, assim adaptamos propostas exclusivas de mercado para você chegar aonde deseja. &lt;br&gt;&lt;br&gt;Consulte-nos! &lt;br&gt;&lt;br&gt;Petrucci Gestão Imobiliária. -</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>492000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>54000000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Avenida Marechal Arthur da Costa e Silva, KM 152</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>13487230</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Bairro do Ferrão</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-bairro-do-ferrao-bairros-limeira-492000m2-venda-RS54000000-id-2610392196/</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>-22.582356</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-47.385364</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Terreno à venda, 75000 m² por R$ 9.750.000,00 - Limeira - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Terreno industrial com 75.000m² de área total.&lt;br&gt;&lt;br&gt;Para obter uma consultoria imobiliária completa e de qualidade, basta entrar em contato com nossos consultores através dos telefones e e-mail abaixo:&lt;br&gt;F: / &lt;br&gt;&lt;br&gt;&lt;br&gt;*Valores informados e disponibilidade do imóvel sujeitos a alterações sem prévio aviso. -</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9750000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>13487170</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIMEIRA </t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-limeira-bairros-limeira-75000m2-venda-RS9750000-id-2568006777/</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Área para Venda em Limeira, Jardim Lagoa Nova</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Área a venda - Limeira,SP &lt;br&gt; Jardim Lagoa Nova &lt;br&gt; &lt;br&gt; São mais de 153 mil metros &lt;br&gt; Vende fracionado!!! &lt;br&gt; &lt;br&gt; Na área tem casa, água nascente e poço caipira &lt;br&gt; &lt;br&gt; &lt;br&gt; - Proximidades: Escola, Farmácia, Supermercado,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>153370</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>850000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>13481770</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Jardim Lagoa Nova</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-lagoa-nova-bairros-limeira-153370m2-venda-RS850000-id-2465549466/</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Área à venda, Loiolas - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Área total 50.000 m², limpa e plana.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3500000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>13487540</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Loiola</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-loiola-bairros-limeira-50000m2-venda-RS3500000-id-2530728638/</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Área à venda, Jardim Lagoa Nova - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Área total do terreno 314.600 m².</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>314600</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9438000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>13481782</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Jardim Lagoa Nova</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-lagoa-nova-bairros-limeira-314600m2-venda-RS9438000-id-2523079905/</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Área à venda, Jardim Residencial Roseira - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Área com mais de 200 metros de fachada na Avenida Doutor Lauro Correia da Silva.&lt;br&gt;Pode ser tanto residencial quanto comercial.&lt;br&gt;Total de 120.000 m² de terreno.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>48000000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>13481243</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Jardim Residencial Roseira</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-residencial-roseira-bairros-limeira-120000m2-venda-RS48000000-id-2525998493/</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LIMEIRA - Terreno Padrão - Jardim Nova Limeira</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Excelente área em frente anhanguera, com 176 metros de frente, contendo 01 casa com 03 dormitórios, 02 banheiros, sala, cozinha e lavanderia. Com mina d água.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>198000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>24000000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>13486199</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Jardim Nova Limeira</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-nova-limeira-bairros-limeira-198000m2-venda-RS24000000-id-2564523514/</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LIMEIRA - Terreno Padrão - Jardim Senador Vergueiro</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Propriedade Rural a 500 metros da Rodovia SP 147</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>139150</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>13482383</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Jardim Senador Vergueiro</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-senador-vergueiro-bairros-limeira-139150m2-venda-RS3000000-id-2615723027/</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Área à venda, Graminha - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Área total de 200.000,00 m² para incorporação.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25000000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>13482899</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Chácara Boa Vista da Graminha</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-chacara-boa-vista-da-graminha-bairros-limeira-200000m2-venda-RS25000000-id-2523078848/</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Área à venda, Jardim Nova Limeira - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IMÓVEL EM EXCELENTE LOCALIZAÇÃO COM VOCAÇÃO INDUSTRIAL E COMERCIAL CONTENDO 70.613 M²</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>70613</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>14122600</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>13486935</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Jardim Nova Limeira</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-nova-limeira-bairros-limeira-70613m2-venda-RS14122600-id-2534183778/</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Área rural à venda, Zona de Producao Industrial 01, Nova Odessa.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Excelente área rural, com mais ou menos 3 alqueires, ao lado do Condomínio Acapulco. São duas áreas; uma de 75000 m2 e outra de 12000 m2 que pode ser vendido junto ou desmembrado. -</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>87000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10500000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>13486199</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Jardim Nova Limeira</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-jardim-nova-limeira-bairros-limeira-87000m2-venda-RS10500000-id-2457884481/</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Área à venda, Residencial Palmeira Real - Limeira/SP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Área total 151.200 m².&lt;br&gt;Documentação em ordem.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>152000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Limeira</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>13481700</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Residencial Palmeira Real</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.vivareal.com.br//imovel/lote-terreno-residencial-palmeira-real-bairros-limeira-152000m2-venda-RS10000000-id-2531126175/</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
